--- a/SwiftairNormalisatie2.xlsx
+++ b/SwiftairNormalisatie2.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="82">
   <si>
     <t>bestelling</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>passagierid</t>
-  </si>
-  <si>
-    <t>bestellingsregels</t>
   </si>
   <si>
     <t>bestellingen</t>
@@ -485,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -502,7 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1153,10 +1149,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:L43"/>
+  <dimension ref="A3:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,10 +1515,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="24" t="s">
         <v>56</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
@@ -1531,13 +1527,13 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I32" t="s">
         <v>7</v>
@@ -1545,172 +1541,164 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>56</v>
+      <c r="D33" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>50</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" t="s">
-        <v>73</v>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" t="s">
-        <v>43</v>
+      <c r="D38" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D39" t="s">
-        <v>77</v>
+      <c r="C39" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C40" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" t="s">
-        <v>81</v>
-      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="C42" s="28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D42" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
